--- a/Reportes Diarios html/3.- Reportes xls Procesados/20230211pr.xlsx
+++ b/Reportes Diarios html/3.- Reportes xls Procesados/20230211pr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESARROLLO2\Documents\Victoremanueleh\REPORTES\3.- Reportes xls Procesados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CACTRI RL\SISTEMAS\BIOMETRICO\REPORTES\Reportes xls Procesados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EDITABLE (Separa Celdas)'!$A$1:$F$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Plantilla nueva'!$B$9:$I$42</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="221">
   <si>
     <t xml:space="preserve">Fecha: </t>
   </si>
@@ -697,114 +697,18 @@
   </si>
   <si>
     <t>08:47 13:56</t>
-  </si>
-  <si>
-    <t>11/02/2024</t>
-  </si>
-  <si>
-    <t>11/02/2025</t>
-  </si>
-  <si>
-    <t>11/02/2026</t>
-  </si>
-  <si>
-    <t>11/02/2027</t>
-  </si>
-  <si>
-    <t>11/02/2028</t>
-  </si>
-  <si>
-    <t>11/02/2029</t>
-  </si>
-  <si>
-    <t>11/02/2030</t>
-  </si>
-  <si>
-    <t>11/02/2031</t>
-  </si>
-  <si>
-    <t>11/02/2032</t>
-  </si>
-  <si>
-    <t>11/02/2033</t>
-  </si>
-  <si>
-    <t>11/02/2034</t>
-  </si>
-  <si>
-    <t>11/02/2035</t>
-  </si>
-  <si>
-    <t>11/02/2036</t>
-  </si>
-  <si>
-    <t>11/02/2037</t>
-  </si>
-  <si>
-    <t>11/02/2038</t>
-  </si>
-  <si>
-    <t>11/02/2039</t>
-  </si>
-  <si>
-    <t>11/02/2040</t>
-  </si>
-  <si>
-    <t>11/02/2041</t>
-  </si>
-  <si>
-    <t>11/02/2042</t>
-  </si>
-  <si>
-    <t>11/02/2043</t>
-  </si>
-  <si>
-    <t>11/02/2044</t>
-  </si>
-  <si>
-    <t>11/02/2045</t>
-  </si>
-  <si>
-    <t>11/02/2046</t>
-  </si>
-  <si>
-    <t>11/02/2047</t>
-  </si>
-  <si>
-    <t>11/02/2048</t>
-  </si>
-  <si>
-    <t>11/02/2049</t>
-  </si>
-  <si>
-    <t>11/02/2050</t>
-  </si>
-  <si>
-    <t>11/02/2051</t>
-  </si>
-  <si>
-    <t>11/02/2052</t>
-  </si>
-  <si>
-    <t>11/02/2053</t>
-  </si>
-  <si>
-    <t>11/02/2054</t>
-  </si>
-  <si>
-    <t>11/02/2055</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,6 +1160,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,9 +1195,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1286,13 +1204,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,29 +1222,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2084,7 +1988,7 @@
       <selection sqref="A1:K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -2094,46 +1998,46 @@
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="73" t="s">
         <v>111</v>
       </c>
       <c r="H1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="72" t="s">
         <v>206</v>
       </c>
       <c r="H2" s="20">
@@ -2143,66 +2047,66 @@
         <v>0.56319444444444444</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="72" t="s">
         <v>200</v>
       </c>
       <c r="H3" s="20">
         <v>0.38750000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="72" t="s">
         <v>197</v>
       </c>
       <c r="H5" s="20">
@@ -2212,23 +2116,23 @@
         <v>0.65486111111111112</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="72" t="s">
         <v>198</v>
       </c>
       <c r="H6" s="20">
@@ -2238,46 +2142,46 @@
         <v>0.56111111111111112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="72" t="s">
         <v>201</v>
       </c>
       <c r="H7" s="20">
         <v>0.37152777777777773</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="72" t="s">
         <v>215</v>
       </c>
       <c r="H8" s="20">
@@ -2287,46 +2191,46 @@
         <v>0.65277777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="72" t="s">
         <v>199</v>
       </c>
       <c r="H9" s="20">
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="72" t="s">
         <v>219</v>
       </c>
       <c r="H10" s="20">
@@ -2336,89 +2240,89 @@
         <v>0.79375000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="72" t="s">
         <v>205</v>
       </c>
       <c r="H12" s="20">
         <v>0.34236111111111112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="72" t="s">
         <v>195</v>
       </c>
       <c r="H13" s="20">
         <v>0.33611111111111108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="72" t="s">
         <v>220</v>
       </c>
       <c r="H14" s="20">
@@ -2428,23 +2332,23 @@
         <v>0.5805555555555556</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="93" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="93" t="s">
+      <c r="F15" s="72" t="s">
         <v>218</v>
       </c>
       <c r="H15" s="20">
@@ -2454,46 +2358,46 @@
         <v>0.72152777777777777</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="F16" s="72" t="s">
         <v>216</v>
       </c>
       <c r="I16" s="20">
         <v>0.60625000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="93" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="93" t="s">
+      <c r="F17" s="72" t="s">
         <v>203</v>
       </c>
       <c r="H17" s="20">
@@ -2503,109 +2407,109 @@
         <v>0.61319444444444449</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="93" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="72" t="s">
         <v>210</v>
       </c>
       <c r="I18" s="20">
         <v>0.6430555555555556</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="93" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="72" t="s">
         <v>199</v>
       </c>
       <c r="H20" s="20">
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="93" t="s">
+      <c r="F21" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="93" t="s">
+      <c r="F22" s="72" t="s">
         <v>214</v>
       </c>
       <c r="H22" s="20">
@@ -2615,23 +2519,23 @@
         <v>0.65416666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="93" t="s">
+      <c r="E23" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="93" t="s">
+      <c r="F23" s="72" t="s">
         <v>202</v>
       </c>
       <c r="H23" s="20">
@@ -2641,23 +2545,23 @@
         <v>0.60833333333333328</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="93" t="s">
+      <c r="D24" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="93" t="s">
+      <c r="E24" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="93" t="s">
+      <c r="F24" s="72" t="s">
         <v>217</v>
       </c>
       <c r="H24" s="20">
@@ -2667,23 +2571,23 @@
         <v>0.57847222222222217</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="72" t="s">
         <v>213</v>
       </c>
       <c r="H25" s="20">
@@ -2693,23 +2597,23 @@
         <v>0.59236111111111112</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="93" t="s">
+      <c r="E26" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="72" t="s">
         <v>196</v>
       </c>
       <c r="H26" s="20">
@@ -2719,23 +2623,23 @@
         <v>0.6381944444444444</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="93" t="s">
+      <c r="F27" s="72" t="s">
         <v>208</v>
       </c>
       <c r="H27" s="20">
@@ -2745,23 +2649,23 @@
         <v>0.5756944444444444</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="72" t="s">
         <v>207</v>
       </c>
       <c r="H28" s="20">
@@ -2771,43 +2675,43 @@
         <v>0.55486111111111114</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E29" s="93" t="s">
+      <c r="E29" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="93" t="s">
+      <c r="F29" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="93" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="93" t="s">
+      <c r="E30" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="93" t="s">
+      <c r="F30" s="72" t="s">
         <v>212</v>
       </c>
       <c r="H30" s="20">
@@ -2817,43 +2721,43 @@
         <v>0.71111111111111114</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="93" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="72" t="s">
         <v>204</v>
       </c>
       <c r="H32" s="20">
@@ -2863,23 +2767,23 @@
         <v>0.57361111111111118</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="93" t="s">
+      <c r="C33" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="93" t="s">
+      <c r="D33" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="93" t="s">
+      <c r="E33" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="72" t="s">
         <v>209</v>
       </c>
       <c r="H33" s="20">
@@ -2889,23 +2793,23 @@
         <v>0.57500000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="93" t="s">
+      <c r="C34" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="D34" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="93" t="s">
+      <c r="E34" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="93" t="s">
+      <c r="F34" s="72" t="s">
         <v>211</v>
       </c>
       <c r="H34" s="20">
@@ -2933,7 +2837,7 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -2943,46 +2847,46 @@
     <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="73" t="s">
         <v>111</v>
       </c>
       <c r="H1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="72" t="s">
         <v>206</v>
       </c>
       <c r="H2" s="20">
@@ -2992,66 +2896,66 @@
         <v>0.56319444444444444</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="72" t="s">
         <v>200</v>
       </c>
       <c r="H3" s="20">
         <v>0.38750000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="72" t="s">
         <v>197</v>
       </c>
       <c r="H5" s="20">
@@ -3061,23 +2965,23 @@
         <v>0.65486111111111112</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="72" t="s">
         <v>198</v>
       </c>
       <c r="H6" s="20">
@@ -3087,46 +2991,46 @@
         <v>0.56111111111111112</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="72" t="s">
         <v>201</v>
       </c>
       <c r="H7" s="20">
         <v>0.37152777777777773</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="72" t="s">
         <v>215</v>
       </c>
       <c r="H8" s="20">
@@ -3136,46 +3040,46 @@
         <v>0.65277777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="72" t="s">
         <v>199</v>
       </c>
       <c r="H9" s="20">
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="72" t="s">
         <v>219</v>
       </c>
       <c r="H10" s="20">
@@ -3185,89 +3089,89 @@
         <v>0.79375000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="93" t="s">
+      <c r="D12" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="93" t="s">
+      <c r="F12" s="72" t="s">
         <v>205</v>
       </c>
       <c r="H12" s="20">
         <v>0.34236111111111112</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="93" t="s">
+      <c r="F13" s="72" t="s">
         <v>195</v>
       </c>
       <c r="H13" s="20">
         <v>0.33611111111111108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="72" t="s">
         <v>220</v>
       </c>
       <c r="H14" s="20">
@@ -3277,23 +3181,23 @@
         <v>0.5805555555555556</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="93" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="93" t="s">
+      <c r="F15" s="72" t="s">
         <v>218</v>
       </c>
       <c r="H15" s="20">
@@ -3303,46 +3207,46 @@
         <v>0.72152777777777777</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="93" t="s">
+      <c r="D16" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="F16" s="72" t="s">
         <v>216</v>
       </c>
       <c r="I16" s="20">
         <v>0.60625000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="93" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="93" t="s">
+      <c r="F17" s="72" t="s">
         <v>203</v>
       </c>
       <c r="H17" s="20">
@@ -3352,109 +3256,109 @@
         <v>0.61319444444444449</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="93" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="72" t="s">
         <v>210</v>
       </c>
       <c r="I18" s="20">
         <v>0.6430555555555556</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="93" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="93" t="s">
+      <c r="D20" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="72" t="s">
         <v>199</v>
       </c>
       <c r="H20" s="20">
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="93" t="s">
+      <c r="F21" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="93" t="s">
+      <c r="F22" s="72" t="s">
         <v>214</v>
       </c>
       <c r="H22" s="20">
@@ -3464,23 +3368,23 @@
         <v>0.65416666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="93" t="s">
+      <c r="E23" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="93" t="s">
+      <c r="F23" s="72" t="s">
         <v>202</v>
       </c>
       <c r="H23" s="20">
@@ -3490,23 +3394,23 @@
         <v>0.60833333333333328</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="93" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="93" t="s">
+      <c r="D24" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E24" s="93" t="s">
+      <c r="E24" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="93" t="s">
+      <c r="F24" s="72" t="s">
         <v>217</v>
       </c>
       <c r="H24" s="20">
@@ -3516,23 +3420,23 @@
         <v>0.57847222222222217</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="72" t="s">
         <v>213</v>
       </c>
       <c r="H25" s="20">
@@ -3542,23 +3446,23 @@
         <v>0.59236111111111112</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="93" t="s">
+      <c r="E26" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="72" t="s">
         <v>196</v>
       </c>
       <c r="H26" s="20">
@@ -3568,23 +3472,23 @@
         <v>0.6381944444444444</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="93" t="s">
+      <c r="F27" s="72" t="s">
         <v>208</v>
       </c>
       <c r="H27" s="20">
@@ -3594,23 +3498,23 @@
         <v>0.5756944444444444</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="93" t="s">
+      <c r="E28" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="93" t="s">
+      <c r="F28" s="72" t="s">
         <v>207</v>
       </c>
       <c r="H28" s="20">
@@ -3620,43 +3524,43 @@
         <v>0.55486111111111114</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E29" s="93" t="s">
+      <c r="E29" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="93" t="s">
+      <c r="F29" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="93" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E30" s="93" t="s">
+      <c r="E30" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="93" t="s">
+      <c r="F30" s="72" t="s">
         <v>212</v>
       </c>
       <c r="H30" s="20">
@@ -3666,43 +3570,43 @@
         <v>0.71111111111111114</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="93" t="s">
+      <c r="F31" s="72" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="93" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="93" t="s">
+      <c r="E32" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="72" t="s">
         <v>204</v>
       </c>
       <c r="H32" s="20">
@@ -3712,23 +3616,23 @@
         <v>0.57361111111111118</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="93" t="s">
+      <c r="C33" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="D33" s="93" t="s">
+      <c r="D33" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="93" t="s">
+      <c r="E33" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="72" t="s">
         <v>209</v>
       </c>
       <c r="H33" s="20">
@@ -3738,23 +3642,23 @@
         <v>0.57500000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
+    <row r="34" spans="1:11">
+      <c r="A34" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="93" t="s">
+      <c r="C34" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="D34" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="93" t="s">
+      <c r="E34" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="F34" s="93" t="s">
+      <c r="F34" s="72" t="s">
         <v>211</v>
       </c>
       <c r="H34" s="20">
@@ -3764,12 +3668,12 @@
         <v>0.63611111111111118</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" t="str">
         <f t="shared" ref="A40:K40" si="0">A1</f>
         <v>No.</v>
@@ -3815,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" t="str">
         <f t="shared" ref="A41:K41" si="1">A2</f>
         <v>99</v>
@@ -3861,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" t="str">
         <f t="shared" ref="A42:K42" si="2">A3</f>
         <v>113</v>
@@ -3907,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" t="str">
         <f t="shared" ref="A43:K43" si="3">A4</f>
         <v>120</v>
@@ -3953,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" t="str">
         <f t="shared" ref="A44:K44" si="4">A5</f>
         <v>117</v>
@@ -3999,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" t="str">
         <f t="shared" ref="A45:K45" si="5">A6</f>
         <v>116</v>
@@ -4045,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" t="str">
         <f t="shared" ref="A46:K46" si="6">A7</f>
         <v>111</v>
@@ -4091,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" t="str">
         <f t="shared" ref="A47:K47" si="7">A8</f>
         <v>132</v>
@@ -4137,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" t="str">
         <f t="shared" ref="A48:K48" si="8">A9</f>
         <v>103</v>
@@ -4183,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" t="str">
         <f t="shared" ref="A49:K49" si="9">A10</f>
         <v>137</v>
@@ -4229,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" t="str">
         <f t="shared" ref="A50:K50" si="10">A11</f>
         <v>134</v>
@@ -4275,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" t="str">
         <f t="shared" ref="A51:K51" si="11">A12</f>
         <v>102</v>
@@ -4321,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" t="str">
         <f t="shared" ref="A52:K52" si="12">A13</f>
         <v>5</v>
@@ -4367,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" t="str">
         <f t="shared" ref="A53:K53" si="13">A14</f>
         <v>138</v>
@@ -4413,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" t="str">
         <f t="shared" ref="A54:K54" si="14">A15</f>
         <v>136</v>
@@ -4459,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" t="str">
         <f t="shared" ref="A55:K55" si="15">A16</f>
         <v>133</v>
@@ -4505,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" t="str">
         <f t="shared" ref="A56:K56" si="16">A17</f>
         <v>106</v>
@@ -4551,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" t="str">
         <f t="shared" ref="A57:K57" si="17">A18</f>
         <v>95</v>
@@ -4597,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" t="str">
         <f t="shared" ref="A58:K58" si="18">A19</f>
         <v>119</v>
@@ -4643,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" t="str">
         <f t="shared" ref="A59:K59" si="19">A20</f>
         <v>115</v>
@@ -4689,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" t="str">
         <f t="shared" ref="A60:K60" si="20">A21</f>
         <v>94</v>
@@ -4735,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" t="str">
         <f t="shared" ref="A61:K61" si="21">A22</f>
         <v>131</v>
@@ -4781,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" t="str">
         <f t="shared" ref="A62:K62" si="22">A23</f>
         <v>107</v>
@@ -4827,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" t="str">
         <f t="shared" ref="A63:K63" si="23">A24</f>
         <v>135</v>
@@ -4873,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" t="str">
         <f t="shared" ref="A64:K64" si="24">A25</f>
         <v>123</v>
@@ -4919,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" t="str">
         <f t="shared" ref="A65:K65" si="25">A26</f>
         <v>118</v>
@@ -4965,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" t="str">
         <f t="shared" ref="A66:K66" si="26">A27</f>
         <v>97</v>
@@ -5011,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" t="str">
         <f t="shared" ref="A67:K67" si="27">A28</f>
         <v>98</v>
@@ -5057,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" t="str">
         <f t="shared" ref="A68:K68" si="28">A29</f>
         <v>112</v>
@@ -5103,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" t="str">
         <f t="shared" ref="A69:K69" si="29">A30</f>
         <v>124</v>
@@ -5149,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" t="str">
         <f t="shared" ref="A70:K70" si="30">A31</f>
         <v>121</v>
@@ -5195,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" t="str">
         <f t="shared" ref="A71:K71" si="31">A32</f>
         <v>104</v>
@@ -5241,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" t="str">
         <f t="shared" ref="A72:K72" si="32">A33</f>
         <v>96</v>
@@ -5287,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" t="str">
         <f t="shared" ref="A73:K73" si="33">A34</f>
         <v>93</v>
@@ -5333,12 +5237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" t="str">
         <f t="shared" ref="A80:K80" si="34">A1</f>
         <v>No.</v>
@@ -5384,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81" t="str">
         <f t="shared" ref="A81:K81" si="35">A2</f>
         <v>99</v>
@@ -5430,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82" t="str">
         <f t="shared" ref="A82:K82" si="36">A3</f>
         <v>113</v>
@@ -5476,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83" t="str">
         <f t="shared" ref="A83:K83" si="37">A4</f>
         <v>120</v>
@@ -5522,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84" t="str">
         <f t="shared" ref="A84:K84" si="38">A5</f>
         <v>117</v>
@@ -5568,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85" t="str">
         <f t="shared" ref="A85:K85" si="39">A6</f>
         <v>116</v>
@@ -5614,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86" t="str">
         <f t="shared" ref="A86:K86" si="40">A7</f>
         <v>111</v>
@@ -5660,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87" t="str">
         <f t="shared" ref="A87:K87" si="41">A8</f>
         <v>132</v>
@@ -5706,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88" t="str">
         <f t="shared" ref="A88:K88" si="42">A9</f>
         <v>103</v>
@@ -5752,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89" t="str">
         <f t="shared" ref="A89:K89" si="43">A10</f>
         <v>137</v>
@@ -5798,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90" t="str">
         <f t="shared" ref="A90:K90" si="44">A11</f>
         <v>134</v>
@@ -5844,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91" t="str">
         <f t="shared" ref="A91:K91" si="45">A12</f>
         <v>102</v>
@@ -5890,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11">
       <c r="A92" t="str">
         <f t="shared" ref="A92:K92" si="46">A13</f>
         <v>5</v>
@@ -5936,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11">
       <c r="A93" t="str">
         <f t="shared" ref="A93:K93" si="47">A14</f>
         <v>138</v>
@@ -5982,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11">
       <c r="A94" t="str">
         <f t="shared" ref="A94:K94" si="48">A15</f>
         <v>136</v>
@@ -6028,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11">
       <c r="A95" t="str">
         <f t="shared" ref="A95:K95" si="49">A16</f>
         <v>133</v>
@@ -6074,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11">
       <c r="A96" t="str">
         <f t="shared" ref="A96:K96" si="50">A17</f>
         <v>106</v>
@@ -6120,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11">
       <c r="A97" t="str">
         <f t="shared" ref="A97:K97" si="51">A18</f>
         <v>95</v>
@@ -6166,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11">
       <c r="A98" t="str">
         <f t="shared" ref="A98:K98" si="52">A19</f>
         <v>119</v>
@@ -6212,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11">
       <c r="A99" t="str">
         <f t="shared" ref="A99:K99" si="53">A20</f>
         <v>115</v>
@@ -6258,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" t="str">
         <f t="shared" ref="A100:K100" si="54">A21</f>
         <v>94</v>
@@ -6304,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" t="str">
         <f t="shared" ref="A101:K101" si="55">A22</f>
         <v>131</v>
@@ -6350,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11">
       <c r="A102" t="str">
         <f t="shared" ref="A102:K102" si="56">A23</f>
         <v>107</v>
@@ -6396,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" t="str">
         <f t="shared" ref="A103:K103" si="57">A24</f>
         <v>135</v>
@@ -6442,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" t="str">
         <f t="shared" ref="A104:K104" si="58">A25</f>
         <v>123</v>
@@ -6488,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="A105" t="str">
         <f t="shared" ref="A105:K105" si="59">A26</f>
         <v>118</v>
@@ -6534,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" t="str">
         <f t="shared" ref="A106:K106" si="60">A27</f>
         <v>97</v>
@@ -6580,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" t="str">
         <f t="shared" ref="A107:K107" si="61">A28</f>
         <v>98</v>
@@ -6626,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" t="str">
         <f t="shared" ref="A108:K108" si="62">A29</f>
         <v>112</v>
@@ -6672,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" t="str">
         <f t="shared" ref="A109:K109" si="63">A30</f>
         <v>124</v>
@@ -6718,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" t="str">
         <f t="shared" ref="A110:K110" si="64">A31</f>
         <v>121</v>
@@ -6764,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" t="str">
         <f t="shared" ref="A111:K111" si="65">A32</f>
         <v>104</v>
@@ -6810,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="A112" t="str">
         <f t="shared" ref="A112:K112" si="66">A33</f>
         <v>96</v>
@@ -6856,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11">
       <c r="A113" t="str">
         <f t="shared" ref="A113:K113" si="67">A34</f>
         <v>93</v>
@@ -6902,12 +6806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11">
       <c r="A120" t="str">
         <f t="shared" ref="A120:K120" si="68">A1</f>
         <v>No.</v>
@@ -6953,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11">
       <c r="A121" t="str">
         <f t="shared" ref="A121:K121" si="69">A2</f>
         <v>99</v>
@@ -6999,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11">
       <c r="A122" t="str">
         <f t="shared" ref="A122:K122" si="70">A3</f>
         <v>113</v>
@@ -7045,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11">
       <c r="A123" t="str">
         <f t="shared" ref="A123:K123" si="71">A4</f>
         <v>120</v>
@@ -7091,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="A124" t="str">
         <f t="shared" ref="A124:K124" si="72">A5</f>
         <v>117</v>
@@ -7137,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" t="str">
         <f t="shared" ref="A125:K125" si="73">A6</f>
         <v>116</v>
@@ -7183,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" t="str">
         <f t="shared" ref="A126:K126" si="74">A7</f>
         <v>111</v>
@@ -7229,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" t="str">
         <f t="shared" ref="A127:K127" si="75">A8</f>
         <v>132</v>
@@ -7275,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="A128" t="str">
         <f t="shared" ref="A128:K128" si="76">A9</f>
         <v>103</v>
@@ -7321,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" t="str">
         <f t="shared" ref="A129:K129" si="77">A10</f>
         <v>137</v>
@@ -7367,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" t="str">
         <f t="shared" ref="A130:K130" si="78">A11</f>
         <v>134</v>
@@ -7413,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" t="str">
         <f t="shared" ref="A131:K131" si="79">A12</f>
         <v>102</v>
@@ -7459,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="A132" t="str">
         <f t="shared" ref="A132:K132" si="80">A13</f>
         <v>5</v>
@@ -7505,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" t="str">
         <f t="shared" ref="A133:K133" si="81">A14</f>
         <v>138</v>
@@ -7551,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" t="str">
         <f t="shared" ref="A134:K134" si="82">A15</f>
         <v>136</v>
@@ -7597,7 +7501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" t="str">
         <f t="shared" ref="A135:K135" si="83">A16</f>
         <v>133</v>
@@ -7643,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" t="str">
         <f t="shared" ref="A136:K136" si="84">A17</f>
         <v>106</v>
@@ -7689,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" t="str">
         <f t="shared" ref="A137:K137" si="85">A18</f>
         <v>95</v>
@@ -7735,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" t="str">
         <f t="shared" ref="A138:K138" si="86">A19</f>
         <v>119</v>
@@ -7781,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" t="str">
         <f t="shared" ref="A139:K139" si="87">A20</f>
         <v>115</v>
@@ -7827,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="A140" t="str">
         <f t="shared" ref="A140:K140" si="88">A21</f>
         <v>94</v>
@@ -7873,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" t="str">
         <f t="shared" ref="A141:K141" si="89">A22</f>
         <v>131</v>
@@ -7919,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" t="str">
         <f t="shared" ref="A142:K142" si="90">A23</f>
         <v>107</v>
@@ -7965,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" t="str">
         <f t="shared" ref="A143:K143" si="91">A24</f>
         <v>135</v>
@@ -8011,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="A144" t="str">
         <f t="shared" ref="A144:K144" si="92">A25</f>
         <v>123</v>
@@ -8057,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11">
       <c r="A145" t="str">
         <f t="shared" ref="A145:K145" si="93">A26</f>
         <v>118</v>
@@ -8103,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11">
       <c r="A146" t="str">
         <f t="shared" ref="A146:K146" si="94">A27</f>
         <v>97</v>
@@ -8149,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11">
       <c r="A147" t="str">
         <f t="shared" ref="A147:K147" si="95">A28</f>
         <v>98</v>
@@ -8195,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11">
       <c r="A148" t="str">
         <f t="shared" ref="A148:K148" si="96">A29</f>
         <v>112</v>
@@ -8241,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11">
       <c r="A149" t="str">
         <f t="shared" ref="A149:K149" si="97">A30</f>
         <v>124</v>
@@ -8287,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11">
       <c r="A150" t="str">
         <f t="shared" ref="A150:K150" si="98">A31</f>
         <v>121</v>
@@ -8333,7 +8237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11">
       <c r="A151" t="str">
         <f t="shared" ref="A151:K151" si="99">A32</f>
         <v>104</v>
@@ -8379,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11">
       <c r="A152" t="str">
         <f t="shared" ref="A152:K152" si="100">A33</f>
         <v>96</v>
@@ -8425,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11">
       <c r="A153" t="str">
         <f t="shared" ref="A153:K153" si="101">A34</f>
         <v>93</v>
@@ -8481,11 +8385,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="38" customWidth="1"/>
@@ -8501,65 +8405,65 @@
     <col min="14" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73" t="s">
+    <row r="1" spans="2:17" ht="7.5" customHeight="1"/>
+    <row r="2" spans="2:17" ht="35.25" customHeight="1">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="K2" s="82" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="K2" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-    </row>
-    <row r="3" spans="2:17" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-    </row>
-    <row r="4" spans="2:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="75" t="s">
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+    </row>
+    <row r="3" spans="2:17" ht="6" customHeight="1" thickBot="1">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+    </row>
+    <row r="4" spans="2:17" ht="15.75" thickTop="1">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="K4" s="81" t="s">
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="K4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-    </row>
-    <row r="6" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+    </row>
+    <row r="6" spans="2:17" ht="15.75">
       <c r="B6" s="54"/>
       <c r="C6" s="63" t="s">
         <v>106</v>
@@ -8576,7 +8480,7 @@
       </c>
       <c r="Q6" s="52"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17">
       <c r="K7" s="4" t="s">
         <v>88</v>
       </c>
@@ -8599,19 +8503,19 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17">
       <c r="B8" s="36"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="76" t="s">
+      <c r="F8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76" t="s">
+      <c r="G8" s="83"/>
+      <c r="H8" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="76"/>
+      <c r="I8" s="83"/>
       <c r="K8" s="40">
         <v>1</v>
       </c>
@@ -8621,7 +8525,7 @@
       </c>
       <c r="M8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>11/02/2055</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
@@ -8640,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17">
       <c r="B9" s="34" t="s">
         <v>40</v>
       </c>
@@ -8675,7 +8579,7 @@
       </c>
       <c r="M9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>11/02/2037</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N9" s="6">
         <f t="shared" si="1"/>
@@ -8694,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17">
       <c r="B10" s="37">
         <v>1</v>
       </c>
@@ -8728,7 +8632,7 @@
       </c>
       <c r="M10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>11/02/2038</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="1"/>
@@ -8747,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17">
       <c r="B11" s="37">
         <v>2</v>
       </c>
@@ -8758,7 +8662,7 @@
         <v>51</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F11" s="28">
         <v>0.38750000000000001</v>
@@ -8779,7 +8683,7 @@
       </c>
       <c r="M11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>11/02/2032</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" si="3"/>
@@ -8798,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17">
       <c r="B12" s="37">
         <v>3</v>
       </c>
@@ -8809,7 +8713,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -8828,7 +8732,7 @@
       </c>
       <c r="M12" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>11/02/2044</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" si="4"/>
@@ -8847,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17">
       <c r="B13" s="37">
         <v>4</v>
       </c>
@@ -8858,7 +8762,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="F13" s="28">
         <v>0.3263888888888889</v>
@@ -8873,7 +8777,7 @@
         <v>0.98124999999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17">
       <c r="B14" s="37">
         <v>5</v>
       </c>
@@ -8884,7 +8788,7 @@
         <v>54</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="F14" s="28">
         <v>0.37638888888888888</v>
@@ -8910,7 +8814,7 @@
       </c>
       <c r="Q14" s="52"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17">
       <c r="B15" s="37">
         <v>6</v>
       </c>
@@ -8921,7 +8825,7 @@
         <v>55</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="F15" s="28">
         <v>0.37152777777777773</v>
@@ -8955,7 +8859,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17">
       <c r="B16" s="37">
         <v>7</v>
       </c>
@@ -8966,7 +8870,7 @@
         <v>58</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="F16" s="28">
         <v>0.36249999999999999</v>
@@ -8989,7 +8893,7 @@
       </c>
       <c r="M16" s="4" t="str">
         <f t="shared" si="5"/>
-        <v>11/02/2029</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N16" s="43">
         <f t="shared" si="5"/>
@@ -9008,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17">
       <c r="B17" s="37">
         <v>8</v>
       </c>
@@ -9019,7 +8923,7 @@
         <v>59</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="F17" s="28">
         <v>0.34027777777777773</v>
@@ -9032,7 +8936,7 @@
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17">
       <c r="B18" s="37">
         <v>9</v>
       </c>
@@ -9043,7 +8947,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="F18" s="28">
         <v>0.36388888888888887</v>
@@ -9069,7 +8973,7 @@
       </c>
       <c r="Q18" s="52"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17">
       <c r="B19" s="37">
         <v>10</v>
       </c>
@@ -9080,7 +8984,7 @@
         <v>82</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -9112,7 +9016,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17">
       <c r="B20" s="37">
         <v>11</v>
       </c>
@@ -9123,7 +9027,7 @@
         <v>60</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="F20" s="28">
         <v>0.34236111111111112</v>
@@ -9144,7 +9048,7 @@
       </c>
       <c r="M20" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>11/02/2047</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="6"/>
@@ -9163,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17">
       <c r="B21" s="37">
         <v>12</v>
       </c>
@@ -9174,7 +9078,7 @@
         <v>61</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="F21" s="28">
         <v>0.33611111111111108</v>
@@ -9195,7 +9099,7 @@
       </c>
       <c r="M21" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>11/02/2026</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N21" s="6">
         <f t="shared" si="7"/>
@@ -9214,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17">
       <c r="B22" s="37">
         <v>13</v>
       </c>
@@ -9225,10 +9129,10 @@
         <v>62</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="F22" s="28">
-        <v>0.3659722222222222</v>
+        <v>0.3520833333333333</v>
       </c>
       <c r="G22" s="28">
         <v>0.5805555555555556</v>
@@ -9237,10 +9141,10 @@
       <c r="I22" s="29"/>
       <c r="J22" s="56">
         <f>SUM(F22:I22)</f>
-        <v>0.94652777777777786</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+        <v>0.93263888888888891</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23" s="37">
         <v>14</v>
       </c>
@@ -9251,7 +9155,7 @@
         <v>63</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="F23" s="28">
         <v>0.35347222222222219</v>
@@ -9277,7 +9181,7 @@
       </c>
       <c r="Q23" s="52"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17">
       <c r="B24" s="37">
         <v>15</v>
       </c>
@@ -9288,7 +9192,7 @@
         <v>64</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="28">
@@ -9322,7 +9226,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17">
       <c r="B25" s="37">
         <v>16</v>
       </c>
@@ -9333,7 +9237,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="F25" s="28">
         <v>0.36249999999999999</v>
@@ -9356,7 +9260,7 @@
       </c>
       <c r="M25" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>11/02/2041</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="9"/>
@@ -9375,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17">
       <c r="B26" s="37">
         <v>17</v>
       </c>
@@ -9386,13 +9290,13 @@
         <v>65</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="28">
         <v>0.6430555555555556</v>
       </c>
-      <c r="H26" s="92"/>
+      <c r="H26" s="71"/>
       <c r="I26" s="29"/>
       <c r="J26" s="56">
         <f t="shared" si="8"/>
@@ -9407,7 +9311,7 @@
       </c>
       <c r="M26" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>11/02/2046</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N26" s="6">
         <f t="shared" si="10"/>
@@ -9426,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17">
       <c r="B27" s="37">
         <v>18</v>
       </c>
@@ -9437,7 +9341,7 @@
         <v>66</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
@@ -9456,7 +9360,7 @@
       </c>
       <c r="M27" s="4" t="str">
         <f t="shared" si="11"/>
-        <v>11/02/2049</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N27" s="6">
         <f t="shared" si="11"/>
@@ -9475,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17">
       <c r="B28" s="37">
         <v>19</v>
       </c>
@@ -9486,7 +9390,7 @@
         <v>67</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="F28" s="28">
         <v>0.34027777777777773</v>
@@ -9499,7 +9403,7 @@
         <v>0.34027777777777773</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17">
       <c r="B29" s="37">
         <v>20</v>
       </c>
@@ -9510,7 +9414,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
@@ -9532,7 +9436,7 @@
       </c>
       <c r="Q29" s="53"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17">
       <c r="B30" s="37">
         <v>21</v>
       </c>
@@ -9543,7 +9447,7 @@
         <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="F30" s="28">
         <v>0.3833333333333333</v>
@@ -9579,7 +9483,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17">
       <c r="B31" s="37">
         <v>22</v>
       </c>
@@ -9590,7 +9494,7 @@
         <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="F31" s="28">
         <v>0.37986111111111115</v>
@@ -9613,7 +9517,7 @@
       </c>
       <c r="M31" s="4" t="str">
         <f t="shared" si="12"/>
-        <v>11/02/2024</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N31" s="6">
         <f t="shared" si="12"/>
@@ -9632,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17">
       <c r="B32" s="37">
         <v>24</v>
       </c>
@@ -9643,7 +9547,7 @@
         <v>71</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="F32" s="28">
         <v>0.38541666666666669</v>
@@ -9658,7 +9562,7 @@
         <v>0.9638888888888888</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17">
       <c r="B33" s="37">
         <v>23</v>
       </c>
@@ -9669,7 +9573,7 @@
         <v>72</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="F33" s="28">
         <v>0.32430555555555557</v>
@@ -9695,7 +9599,7 @@
       </c>
       <c r="Q33" s="53"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17">
       <c r="B34" s="37">
         <v>25</v>
       </c>
@@ -9706,7 +9610,7 @@
         <v>73</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="F34" s="28">
         <v>0.32708333333333334</v>
@@ -9742,7 +9646,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17">
       <c r="B35" s="37">
         <v>26</v>
       </c>
@@ -9753,7 +9657,7 @@
         <v>74</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="F35" s="28">
         <v>0.3611111111111111</v>
@@ -9776,7 +9680,7 @@
       </c>
       <c r="M35" s="4" t="str">
         <f t="shared" si="13"/>
-        <v>11/02/2050</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N35" s="6">
         <f t="shared" si="13"/>
@@ -9795,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17">
       <c r="B36" s="37">
         <v>27</v>
       </c>
@@ -9806,7 +9710,7 @@
         <v>75</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="F36" s="28">
         <v>0.37222222222222223</v>
@@ -9829,7 +9733,7 @@
       </c>
       <c r="M36" s="4" t="str">
         <f t="shared" si="14"/>
-        <v>11/02/2031</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N36" s="6">
         <f t="shared" si="14"/>
@@ -9848,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17">
       <c r="B37" s="37">
         <v>28</v>
       </c>
@@ -9859,7 +9763,7 @@
         <v>76</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
@@ -9878,7 +9782,7 @@
       </c>
       <c r="M37" s="4" t="str">
         <f t="shared" si="15"/>
-        <v>11/02/2028</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N37" s="6">
         <f t="shared" si="15"/>
@@ -9897,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17">
       <c r="B38" s="37">
         <v>29</v>
       </c>
@@ -9908,7 +9812,7 @@
         <v>77</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="F38" s="28">
         <v>0.36736111111111108</v>
@@ -9923,7 +9827,7 @@
         <v>1.0784722222222223</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17">
       <c r="B39" s="37">
         <v>30</v>
       </c>
@@ -9934,7 +9838,7 @@
         <v>78</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
@@ -9956,7 +9860,7 @@
       </c>
       <c r="Q39" s="53"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17">
       <c r="B40" s="37">
         <v>31</v>
       </c>
@@ -9967,7 +9871,7 @@
         <v>79</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="F40" s="28">
         <v>0.40138888888888885</v>
@@ -10003,7 +9907,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17">
       <c r="B41" s="37">
         <v>32</v>
       </c>
@@ -10014,7 +9918,7 @@
         <v>80</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="F41" s="28">
         <v>0.35486111111111113</v>
@@ -10037,7 +9941,7 @@
       </c>
       <c r="M41" s="4" t="str">
         <f t="shared" si="16"/>
-        <v>11/02/2040</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N41" s="6">
         <f t="shared" si="16"/>
@@ -10056,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17">
       <c r="B42" s="37">
         <v>33</v>
       </c>
@@ -10067,7 +9971,7 @@
         <v>81</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="F42" s="28">
         <v>0.34027777777777773</v>
@@ -10109,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17">
       <c r="K44" s="41" t="s">
         <v>95</v>
       </c>
@@ -10122,7 +10026,7 @@
       </c>
       <c r="Q44" s="65"/>
     </row>
-    <row r="45" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" ht="15.75" thickBot="1">
       <c r="K45" s="4" t="s">
         <v>88</v>
       </c>
@@ -10145,7 +10049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17">
       <c r="B46" s="39" t="s">
         <v>1</v>
       </c>
@@ -10156,11 +10060,11 @@
       <c r="G46" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H46" s="71" t="str">
+      <c r="H46" s="78" t="str">
         <f>E10</f>
         <v>11/02/2023</v>
       </c>
-      <c r="I46" s="71"/>
+      <c r="I46" s="78"/>
       <c r="K46" s="5">
         <v>1</v>
       </c>
@@ -10170,7 +10074,7 @@
       </c>
       <c r="M46" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>11/02/2042</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N46" s="44">
         <f t="shared" si="18"/>
@@ -10189,43 +10093,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K47" s="82" t="s">
+    <row r="47" spans="2:17">
+      <c r="K47" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-    </row>
-    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="77" t="s">
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+    </row>
+    <row r="48" spans="2:17" ht="15.75" customHeight="1">
+      <c r="D48" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-    </row>
-    <row r="49" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-    </row>
-    <row r="50" spans="2:17" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+    </row>
+    <row r="49" spans="2:17" ht="15" customHeight="1" thickBot="1">
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+    </row>
+    <row r="50" spans="2:17" ht="15" customHeight="1" thickTop="1">
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
       <c r="D50" s="62" t="s">
@@ -10235,17 +10139,17 @@
       <c r="F50" s="61"/>
       <c r="G50" s="61"/>
       <c r="H50" s="61"/>
-      <c r="K50" s="81" t="s">
+      <c r="K50" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
-    </row>
-    <row r="51" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="75"/>
+      <c r="M50" s="75"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
+      <c r="P50" s="75"/>
+      <c r="Q50" s="75"/>
+    </row>
+    <row r="51" spans="2:17" ht="15" customHeight="1">
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
       <c r="D51" s="61"/>
@@ -10254,7 +10158,7 @@
       <c r="G51" s="61"/>
       <c r="H51" s="61"/>
     </row>
-    <row r="52" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17">
       <c r="B52" s="60"/>
       <c r="C52" s="30" t="s">
         <v>107</v>
@@ -10263,23 +10167,23 @@
       <c r="F52" s="62"/>
       <c r="G52" s="62"/>
     </row>
-    <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" ht="15.75" customHeight="1">
       <c r="B53" s="60"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17">
       <c r="B54" s="35"/>
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
-      <c r="F54" s="76" t="str">
+      <c r="F54" s="83" t="str">
         <f t="shared" ref="F54:F88" si="19">F8</f>
         <v>Mañana</v>
       </c>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76" t="str">
+      <c r="G54" s="83"/>
+      <c r="H54" s="83" t="str">
         <f t="shared" ref="H54:H71" si="20">H8</f>
         <v>Tarde</v>
       </c>
-      <c r="I54" s="76"/>
+      <c r="I54" s="83"/>
       <c r="K54" s="41" t="s">
         <v>96</v>
       </c>
@@ -10292,7 +10196,7 @@
       </c>
       <c r="Q54" s="52"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17">
       <c r="B55" s="46" t="str">
         <f t="shared" ref="B55:E74" si="21">B9</f>
         <v>Nro.</v>
@@ -10347,7 +10251,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17">
       <c r="B56" s="37">
         <f t="shared" si="21"/>
         <v>1</v>
@@ -10393,7 +10297,7 @@
       </c>
       <c r="M56" s="4" t="str">
         <f t="shared" si="24"/>
-        <v>11/02/2027</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N56" s="6">
         <f t="shared" si="24"/>
@@ -10412,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17">
       <c r="B57" s="37">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -10427,7 +10331,7 @@
       </c>
       <c r="E57" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2024</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F57" s="49">
         <f t="shared" si="19"/>
@@ -10450,7 +10354,7 @@
         <v>0.38750000000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17">
       <c r="B58" s="37">
         <f t="shared" si="21"/>
         <v>3</v>
@@ -10465,7 +10369,7 @@
       </c>
       <c r="E58" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2025</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F58" s="49">
         <f t="shared" si="19"/>
@@ -10499,7 +10403,7 @@
       </c>
       <c r="Q58" s="52"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17">
       <c r="B59" s="37">
         <f t="shared" si="21"/>
         <v>4</v>
@@ -10514,7 +10418,7 @@
       </c>
       <c r="E59" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2026</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F59" s="49">
         <f t="shared" si="19"/>
@@ -10558,7 +10462,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17">
       <c r="B60" s="37">
         <f t="shared" si="21"/>
         <v>5</v>
@@ -10573,7 +10477,7 @@
       </c>
       <c r="E60" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2027</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F60" s="49">
         <f t="shared" si="19"/>
@@ -10604,7 +10508,7 @@
       </c>
       <c r="M60" s="4" t="str">
         <f>E18</f>
-        <v>11/02/2031</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N60" s="6">
         <f>F18</f>
@@ -10623,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17">
       <c r="B61" s="37">
         <f t="shared" si="21"/>
         <v>6</v>
@@ -10638,7 +10542,7 @@
       </c>
       <c r="E61" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2028</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F61" s="49">
         <f t="shared" si="19"/>
@@ -10669,7 +10573,7 @@
       </c>
       <c r="M61" s="4" t="str">
         <f t="shared" si="26"/>
-        <v>11/02/2052</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N61" s="6">
         <f t="shared" si="26"/>
@@ -10688,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17">
       <c r="B62" s="37">
         <f t="shared" si="21"/>
         <v>7</v>
@@ -10703,7 +10607,7 @@
       </c>
       <c r="E62" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2029</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F62" s="49">
         <f t="shared" si="19"/>
@@ -10726,7 +10630,7 @@
         <v>1.0152777777777777</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17">
       <c r="B63" s="37">
         <f t="shared" si="21"/>
         <v>8</v>
@@ -10741,7 +10645,7 @@
       </c>
       <c r="E63" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2030</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F63" s="49">
         <f t="shared" si="19"/>
@@ -10775,7 +10679,7 @@
       </c>
       <c r="Q63" s="52"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17">
       <c r="B64" s="37">
         <f t="shared" si="21"/>
         <v>9</v>
@@ -10790,7 +10694,7 @@
       </c>
       <c r="E64" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2031</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F64" s="49">
         <f t="shared" si="19"/>
@@ -10834,7 +10738,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17">
       <c r="B65" s="37">
         <f t="shared" si="21"/>
         <v>10</v>
@@ -10849,7 +10753,7 @@
       </c>
       <c r="E65" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2032</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F65" s="49">
         <f t="shared" si="19"/>
@@ -10880,7 +10784,7 @@
       </c>
       <c r="M65" s="4" t="str">
         <f t="shared" si="27"/>
-        <v>11/02/2048</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N65" s="6">
         <f t="shared" si="27"/>
@@ -10899,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17">
       <c r="B66" s="37">
         <f t="shared" si="21"/>
         <v>11</v>
@@ -10914,7 +10818,7 @@
       </c>
       <c r="E66" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2033</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F66" s="49">
         <f t="shared" si="19"/>
@@ -10945,7 +10849,7 @@
       </c>
       <c r="M66" s="4" t="str">
         <f t="shared" si="28"/>
-        <v>11/02/2045</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N66" s="6">
         <f t="shared" si="28"/>
@@ -10964,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17">
       <c r="B67" s="37">
         <f t="shared" si="21"/>
         <v>12</v>
@@ -10979,7 +10883,7 @@
       </c>
       <c r="E67" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2034</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F67" s="49">
         <f t="shared" si="19"/>
@@ -11002,7 +10906,7 @@
         <v>0.33611111111111108</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17">
       <c r="B68" s="37">
         <f t="shared" si="21"/>
         <v>13</v>
@@ -11017,11 +10921,11 @@
       </c>
       <c r="E68" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2035</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F68" s="49">
         <f t="shared" si="19"/>
-        <v>0.3659722222222222</v>
+        <v>0.3520833333333333</v>
       </c>
       <c r="G68" s="49">
         <f t="shared" si="22"/>
@@ -11037,7 +10941,7 @@
       </c>
       <c r="J68" s="57">
         <f t="shared" si="25"/>
-        <v>0.94652777777777786</v>
+        <v>0.93263888888888891</v>
       </c>
       <c r="K68" s="41" t="s">
         <v>99</v>
@@ -11051,7 +10955,7 @@
       </c>
       <c r="Q68" s="52"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17">
       <c r="B69" s="37">
         <f t="shared" si="21"/>
         <v>14</v>
@@ -11066,7 +10970,7 @@
       </c>
       <c r="E69" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2036</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F69" s="49">
         <f t="shared" si="19"/>
@@ -11110,7 +11014,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17">
       <c r="B70" s="37">
         <f t="shared" si="21"/>
         <v>15</v>
@@ -11125,7 +11029,7 @@
       </c>
       <c r="E70" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2037</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F70" s="49">
         <f t="shared" si="19"/>
@@ -11156,7 +11060,7 @@
       </c>
       <c r="M70" s="4" t="str">
         <f t="shared" si="29"/>
-        <v>11/02/2053</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N70" s="6">
         <f t="shared" si="29"/>
@@ -11175,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17">
       <c r="B71" s="37">
         <f t="shared" si="21"/>
         <v>16</v>
@@ -11190,7 +11094,7 @@
       </c>
       <c r="E71" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2038</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F71" s="49">
         <f t="shared" si="19"/>
@@ -11213,7 +11117,7 @@
         <v>0.97569444444444442</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17">
       <c r="B72" s="37">
         <f t="shared" si="21"/>
         <v>17</v>
@@ -11228,7 +11132,7 @@
       </c>
       <c r="E72" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2039</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F72" s="49">
         <f t="shared" si="19"/>
@@ -11259,7 +11163,7 @@
       </c>
       <c r="Q72" s="52"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17">
       <c r="B73" s="37">
         <f t="shared" si="21"/>
         <v>18</v>
@@ -11274,7 +11178,7 @@
       </c>
       <c r="E73" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2040</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F73" s="49">
         <f t="shared" si="19"/>
@@ -11318,7 +11222,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17">
       <c r="B74" s="37">
         <f t="shared" si="21"/>
         <v>19</v>
@@ -11333,7 +11237,7 @@
       </c>
       <c r="E74" s="48" t="str">
         <f t="shared" si="21"/>
-        <v>11/02/2041</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F74" s="49">
         <f t="shared" si="19"/>
@@ -11364,7 +11268,7 @@
       </c>
       <c r="M74" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>11/02/2030</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N74" s="6">
         <f t="shared" si="31"/>
@@ -11383,7 +11287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17">
       <c r="B75" s="37">
         <f t="shared" ref="B75:E88" si="32">B29</f>
         <v>20</v>
@@ -11398,7 +11302,7 @@
       </c>
       <c r="E75" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2042</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F75" s="49">
         <f t="shared" si="19"/>
@@ -11429,7 +11333,7 @@
       </c>
       <c r="M75" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>11/02/2054</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N75" s="6">
         <f t="shared" si="33"/>
@@ -11448,7 +11352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17">
       <c r="B76" s="37">
         <f t="shared" si="32"/>
         <v>21</v>
@@ -11463,7 +11367,7 @@
       </c>
       <c r="E76" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2043</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F76" s="49">
         <f t="shared" si="19"/>
@@ -11486,7 +11390,7 @@
         <v>1.0375000000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17">
       <c r="B77" s="37">
         <f t="shared" si="32"/>
         <v>22</v>
@@ -11501,7 +11405,7 @@
       </c>
       <c r="E77" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2044</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F77" s="49">
         <f t="shared" si="19"/>
@@ -11535,7 +11439,7 @@
       </c>
       <c r="Q77" s="52"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17">
       <c r="B78" s="37">
         <f t="shared" si="32"/>
         <v>24</v>
@@ -11550,7 +11454,7 @@
       </c>
       <c r="E78" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2045</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F78" s="49">
         <f t="shared" si="19"/>
@@ -11594,7 +11498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17">
       <c r="B79" s="37">
         <f t="shared" si="32"/>
         <v>23</v>
@@ -11609,7 +11513,7 @@
       </c>
       <c r="E79" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2046</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F79" s="49">
         <f t="shared" si="19"/>
@@ -11640,7 +11544,7 @@
       </c>
       <c r="M79" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>11/02/2033</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N79" s="6">
         <f t="shared" si="34"/>
@@ -11659,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17">
       <c r="B80" s="37">
         <f t="shared" si="32"/>
         <v>25</v>
@@ -11674,7 +11578,7 @@
       </c>
       <c r="E80" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2047</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F80" s="49">
         <f t="shared" si="19"/>
@@ -11697,7 +11601,7 @@
         <v>0.96527777777777768</v>
       </c>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17">
       <c r="B81" s="37">
         <f t="shared" si="32"/>
         <v>26</v>
@@ -11712,7 +11616,7 @@
       </c>
       <c r="E81" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2048</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F81" s="49">
         <f t="shared" si="19"/>
@@ -11746,7 +11650,7 @@
       </c>
       <c r="Q81" s="52"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17">
       <c r="B82" s="37">
         <f t="shared" si="32"/>
         <v>27</v>
@@ -11761,7 +11665,7 @@
       </c>
       <c r="E82" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2049</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F82" s="49">
         <f t="shared" si="19"/>
@@ -11805,7 +11709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17">
       <c r="B83" s="37">
         <f t="shared" si="32"/>
         <v>28</v>
@@ -11820,7 +11724,7 @@
       </c>
       <c r="E83" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2050</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F83" s="49">
         <f t="shared" si="19"/>
@@ -11851,7 +11755,7 @@
       </c>
       <c r="M83" s="4" t="str">
         <f t="shared" ref="M83:Q84" si="35">E25</f>
-        <v>11/02/2038</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N83" s="6">
         <f t="shared" si="35"/>
@@ -11870,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17">
       <c r="B84" s="37">
         <f t="shared" si="32"/>
         <v>29</v>
@@ -11885,7 +11789,7 @@
       </c>
       <c r="E84" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2051</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F84" s="49">
         <f t="shared" si="19"/>
@@ -11916,7 +11820,7 @@
       </c>
       <c r="M84" s="4" t="str">
         <f t="shared" si="35"/>
-        <v>11/02/2039</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N84" s="6">
         <f t="shared" si="35"/>
@@ -11935,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17">
       <c r="B85" s="37">
         <f t="shared" si="32"/>
         <v>30</v>
@@ -11950,7 +11854,7 @@
       </c>
       <c r="E85" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2052</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F85" s="49">
         <f t="shared" si="19"/>
@@ -11981,7 +11885,7 @@
       </c>
       <c r="M85" s="4" t="str">
         <f t="shared" si="36"/>
-        <v>11/02/2043</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N85" s="6">
         <f t="shared" si="36"/>
@@ -12000,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17">
       <c r="B86" s="37">
         <f t="shared" si="32"/>
         <v>31</v>
@@ -12015,7 +11919,7 @@
       </c>
       <c r="E86" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2053</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F86" s="49">
         <f t="shared" si="19"/>
@@ -12046,11 +11950,11 @@
       </c>
       <c r="M86" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>11/02/2035</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N86" s="6">
         <f t="shared" si="37"/>
-        <v>0.3659722222222222</v>
+        <v>0.3520833333333333</v>
       </c>
       <c r="O86" s="6">
         <f t="shared" si="37"/>
@@ -12065,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17">
       <c r="B87" s="37">
         <f t="shared" si="32"/>
         <v>32</v>
@@ -12080,7 +11984,7 @@
       </c>
       <c r="E87" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2054</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F87" s="49">
         <f t="shared" si="19"/>
@@ -12103,7 +12007,7 @@
         <v>0.92986111111111125</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17">
       <c r="B88" s="37">
         <f t="shared" si="32"/>
         <v>33</v>
@@ -12118,7 +12022,7 @@
       </c>
       <c r="E88" s="48" t="str">
         <f t="shared" si="32"/>
-        <v>11/02/2055</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F88" s="49">
         <f t="shared" si="19"/>
@@ -12152,7 +12056,7 @@
       </c>
       <c r="Q88" s="52"/>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17">
       <c r="K89" s="4" t="s">
         <v>88</v>
       </c>
@@ -12175,7 +12079,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17">
       <c r="K90" s="5">
         <v>1</v>
       </c>
@@ -12185,7 +12089,7 @@
       </c>
       <c r="M90" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>11/02/2036</v>
+        <v>11/02/2023</v>
       </c>
       <c r="N90" s="6">
         <f t="shared" si="38"/>
@@ -12204,8 +12108,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" ht="15.75" thickBot="1"/>
+    <row r="92" spans="2:17">
       <c r="B92" s="39" t="s">
         <v>1</v>
       </c>
@@ -12216,69 +12120,69 @@
       <c r="G92" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H92" s="71" t="str">
+      <c r="H92" s="78" t="str">
         <f>E56</f>
         <v>11/02/2023</v>
       </c>
-      <c r="I92" s="71"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B94" s="72"/>
-      <c r="C94" s="72"/>
-      <c r="D94" s="77" t="s">
+      <c r="I92" s="78"/>
+    </row>
+    <row r="94" spans="2:17">
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="78"/>
-      <c r="H94" s="78"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B95" s="72"/>
-      <c r="C95" s="72"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="78"/>
-      <c r="H95" s="78"/>
-    </row>
-    <row r="96" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B96" s="72"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="79" t="s">
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="B95" s="79"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="74"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="84"/>
+      <c r="G95" s="84"/>
+      <c r="H95" s="84"/>
+    </row>
+    <row r="96" spans="2:17">
+      <c r="B96" s="79"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="E96" s="79"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="79"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B97" s="72"/>
-      <c r="C97" s="72"/>
-    </row>
-    <row r="99" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="80" t="s">
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="79"/>
+      <c r="C97" s="79"/>
+    </row>
+    <row r="99" spans="2:9" ht="26.25" customHeight="1">
+      <c r="B99" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="80"/>
-      <c r="D99" s="80"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C99" s="86"/>
+      <c r="D99" s="86"/>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" s="35"/>
       <c r="D100" s="30"/>
       <c r="E100" s="30"/>
-      <c r="F100" s="76" t="str">
+      <c r="F100" s="83" t="str">
         <f t="shared" ref="B100:I109" si="39">F54</f>
         <v>Mañana</v>
       </c>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76" t="str">
+      <c r="G100" s="83"/>
+      <c r="H100" s="83" t="str">
         <f t="shared" si="39"/>
         <v>Tarde</v>
       </c>
-      <c r="I100" s="76"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I100" s="83"/>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" s="46" t="str">
         <f t="shared" si="39"/>
         <v>Nro.</v>
@@ -12312,7 +12216,7 @@
         <v>Marc-Sal</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9">
       <c r="B102" s="37">
         <f t="shared" si="39"/>
         <v>1</v>
@@ -12346,7 +12250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9">
       <c r="B103" s="37">
         <f t="shared" si="39"/>
         <v>2</v>
@@ -12361,7 +12265,7 @@
       </c>
       <c r="E103" s="29" t="str">
         <f t="shared" si="39"/>
-        <v>11/02/2024</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F103" s="49">
         <f t="shared" si="39"/>
@@ -12380,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9">
       <c r="B104" s="37">
         <f t="shared" si="39"/>
         <v>3</v>
@@ -12395,7 +12299,7 @@
       </c>
       <c r="E104" s="29" t="str">
         <f t="shared" si="39"/>
-        <v>11/02/2025</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F104" s="49">
         <f t="shared" si="39"/>
@@ -12414,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9">
       <c r="B105" s="37">
         <f t="shared" si="39"/>
         <v>4</v>
@@ -12429,7 +12333,7 @@
       </c>
       <c r="E105" s="31" t="str">
         <f t="shared" si="39"/>
-        <v>11/02/2026</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F105" s="49">
         <f t="shared" si="39"/>
@@ -12448,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9">
       <c r="B106" s="37">
         <f t="shared" si="39"/>
         <v>5</v>
@@ -12463,7 +12367,7 @@
       </c>
       <c r="E106" s="31" t="str">
         <f t="shared" si="39"/>
-        <v>11/02/2027</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F106" s="49">
         <f t="shared" si="39"/>
@@ -12482,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9">
       <c r="B107" s="37">
         <f t="shared" si="39"/>
         <v>6</v>
@@ -12497,7 +12401,7 @@
       </c>
       <c r="E107" s="31" t="str">
         <f t="shared" si="39"/>
-        <v>11/02/2028</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F107" s="49">
         <f t="shared" si="39"/>
@@ -12516,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9">
       <c r="B108" s="37">
         <f t="shared" si="39"/>
         <v>7</v>
@@ -12531,7 +12435,7 @@
       </c>
       <c r="E108" s="31" t="str">
         <f t="shared" si="39"/>
-        <v>11/02/2029</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F108" s="49">
         <f t="shared" si="39"/>
@@ -12550,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9">
       <c r="B109" s="37">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -12565,7 +12469,7 @@
       </c>
       <c r="E109" s="31" t="str">
         <f t="shared" si="39"/>
-        <v>11/02/2030</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F109" s="49">
         <f t="shared" si="39"/>
@@ -12584,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9">
       <c r="B110" s="37">
         <f t="shared" ref="B110:I119" si="40">B64</f>
         <v>9</v>
@@ -12599,7 +12503,7 @@
       </c>
       <c r="E110" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>11/02/2031</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F110" s="49">
         <f t="shared" si="40"/>
@@ -12618,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9">
       <c r="B111" s="37">
         <f t="shared" si="40"/>
         <v>10</v>
@@ -12633,7 +12537,7 @@
       </c>
       <c r="E111" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>11/02/2032</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F111" s="49">
         <f t="shared" si="40"/>
@@ -12652,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9">
       <c r="B112" s="37">
         <f t="shared" si="40"/>
         <v>11</v>
@@ -12667,7 +12571,7 @@
       </c>
       <c r="E112" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>11/02/2033</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F112" s="49">
         <f t="shared" si="40"/>
@@ -12686,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9">
       <c r="B113" s="37">
         <f t="shared" si="40"/>
         <v>12</v>
@@ -12701,7 +12605,7 @@
       </c>
       <c r="E113" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>11/02/2034</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F113" s="49">
         <f t="shared" si="40"/>
@@ -12720,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9">
       <c r="B114" s="37">
         <f t="shared" si="40"/>
         <v>13</v>
@@ -12735,11 +12639,11 @@
       </c>
       <c r="E114" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>11/02/2035</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F114" s="49">
         <f t="shared" si="40"/>
-        <v>0.3659722222222222</v>
+        <v>0.3520833333333333</v>
       </c>
       <c r="G114" s="49">
         <f t="shared" si="40"/>
@@ -12754,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9">
       <c r="B115" s="37">
         <f t="shared" si="40"/>
         <v>14</v>
@@ -12769,7 +12673,7 @@
       </c>
       <c r="E115" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>11/02/2036</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F115" s="49">
         <f t="shared" si="40"/>
@@ -12788,7 +12692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9">
       <c r="B116" s="37">
         <f t="shared" si="40"/>
         <v>15</v>
@@ -12803,7 +12707,7 @@
       </c>
       <c r="E116" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>11/02/2037</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F116" s="49">
         <f t="shared" si="40"/>
@@ -12822,7 +12726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9">
       <c r="B117" s="37">
         <f t="shared" si="40"/>
         <v>16</v>
@@ -12837,7 +12741,7 @@
       </c>
       <c r="E117" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>11/02/2038</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F117" s="49">
         <f t="shared" si="40"/>
@@ -12856,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9">
       <c r="B118" s="37">
         <f t="shared" si="40"/>
         <v>17</v>
@@ -12871,7 +12775,7 @@
       </c>
       <c r="E118" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>11/02/2039</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F118" s="49">
         <f t="shared" si="40"/>
@@ -12887,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9">
       <c r="B119" s="37">
         <f t="shared" si="40"/>
         <v>18</v>
@@ -12902,7 +12806,7 @@
       </c>
       <c r="E119" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>11/02/2040</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F119" s="49">
         <f t="shared" si="40"/>
@@ -12921,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9">
       <c r="B120" s="37">
         <f t="shared" ref="B120:I129" si="41">B74</f>
         <v>19</v>
@@ -12936,7 +12840,7 @@
       </c>
       <c r="E120" s="31" t="str">
         <f t="shared" si="41"/>
-        <v>11/02/2041</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F120" s="49">
         <f t="shared" si="41"/>
@@ -12955,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9">
       <c r="B121" s="37">
         <f t="shared" si="41"/>
         <v>20</v>
@@ -12970,7 +12874,7 @@
       </c>
       <c r="E121" s="31" t="str">
         <f t="shared" si="41"/>
-        <v>11/02/2042</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F121" s="49">
         <f t="shared" si="41"/>
@@ -12989,7 +12893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9">
       <c r="B122" s="37">
         <f t="shared" si="41"/>
         <v>21</v>
@@ -13004,7 +12908,7 @@
       </c>
       <c r="E122" s="31" t="str">
         <f t="shared" si="41"/>
-        <v>11/02/2043</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F122" s="49">
         <f t="shared" si="41"/>
@@ -13023,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9">
       <c r="B123" s="37">
         <f t="shared" si="41"/>
         <v>22</v>
@@ -13038,7 +12942,7 @@
       </c>
       <c r="E123" s="31" t="str">
         <f t="shared" si="41"/>
-        <v>11/02/2044</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F123" s="49">
         <f t="shared" si="41"/>
@@ -13057,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9">
       <c r="B124" s="37">
         <f t="shared" si="41"/>
         <v>24</v>
@@ -13072,7 +12976,7 @@
       </c>
       <c r="E124" s="31" t="str">
         <f t="shared" si="41"/>
-        <v>11/02/2045</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F124" s="49">
         <f t="shared" si="41"/>
@@ -13091,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9">
       <c r="B125" s="37">
         <f t="shared" si="41"/>
         <v>23</v>
@@ -13106,7 +13010,7 @@
       </c>
       <c r="E125" s="31" t="str">
         <f t="shared" si="41"/>
-        <v>11/02/2046</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F125" s="49">
         <f t="shared" si="41"/>
@@ -13125,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9">
       <c r="B126" s="37">
         <f t="shared" si="41"/>
         <v>25</v>
@@ -13140,7 +13044,7 @@
       </c>
       <c r="E126" s="31" t="str">
         <f t="shared" si="41"/>
-        <v>11/02/2047</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F126" s="49">
         <f t="shared" si="41"/>
@@ -13159,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9">
       <c r="B127" s="37">
         <f t="shared" si="41"/>
         <v>26</v>
@@ -13174,7 +13078,7 @@
       </c>
       <c r="E127" s="31" t="str">
         <f t="shared" si="41"/>
-        <v>11/02/2048</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F127" s="49">
         <f t="shared" si="41"/>
@@ -13193,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9">
       <c r="B128" s="37">
         <f t="shared" si="41"/>
         <v>27</v>
@@ -13208,7 +13112,7 @@
       </c>
       <c r="E128" s="31" t="str">
         <f t="shared" si="41"/>
-        <v>11/02/2049</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F128" s="49">
         <f t="shared" si="41"/>
@@ -13227,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9">
       <c r="B129" s="37">
         <f t="shared" si="41"/>
         <v>28</v>
@@ -13242,7 +13146,7 @@
       </c>
       <c r="E129" s="31" t="str">
         <f t="shared" si="41"/>
-        <v>11/02/2050</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F129" s="49">
         <f t="shared" si="41"/>
@@ -13261,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9">
       <c r="B130" s="37">
         <f t="shared" ref="B130:I134" si="42">B84</f>
         <v>29</v>
@@ -13276,7 +13180,7 @@
       </c>
       <c r="E130" s="31" t="str">
         <f t="shared" si="42"/>
-        <v>11/02/2051</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F130" s="49">
         <f t="shared" si="42"/>
@@ -13295,7 +13199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9">
       <c r="B131" s="37">
         <f t="shared" si="42"/>
         <v>30</v>
@@ -13310,7 +13214,7 @@
       </c>
       <c r="E131" s="31" t="str">
         <f t="shared" si="42"/>
-        <v>11/02/2052</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F131" s="49">
         <f t="shared" si="42"/>
@@ -13329,7 +13233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9">
       <c r="B132" s="37">
         <f t="shared" si="42"/>
         <v>31</v>
@@ -13344,7 +13248,7 @@
       </c>
       <c r="E132" s="31" t="str">
         <f t="shared" si="42"/>
-        <v>11/02/2053</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F132" s="49">
         <f t="shared" si="42"/>
@@ -13363,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9">
       <c r="B133" s="37">
         <f t="shared" si="42"/>
         <v>32</v>
@@ -13378,7 +13282,7 @@
       </c>
       <c r="E133" s="31" t="str">
         <f t="shared" si="42"/>
-        <v>11/02/2054</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F133" s="49">
         <f t="shared" si="42"/>
@@ -13397,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9">
       <c r="B134" s="37">
         <f t="shared" si="42"/>
         <v>33</v>
@@ -13412,7 +13316,7 @@
       </c>
       <c r="E134" s="31" t="str">
         <f t="shared" si="42"/>
-        <v>11/02/2055</v>
+        <v>11/02/2023</v>
       </c>
       <c r="F134" s="49">
         <f t="shared" si="42"/>
@@ -13431,14 +13335,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:9" ht="15.75" thickBot="1">
       <c r="E135" s="2"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9">
       <c r="B136" s="39" t="s">
         <v>1</v>
       </c>
@@ -13449,19 +13353,14 @@
       <c r="G136" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H136" s="71" t="str">
+      <c r="H136" s="78" t="str">
         <f>E56</f>
         <v>11/02/2023</v>
       </c>
-      <c r="I136" s="71"/>
+      <c r="I136" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D48:G49"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="K47:P49"/>
-    <mergeCell ref="K2:P3"/>
-    <mergeCell ref="K4:Q4"/>
     <mergeCell ref="H136:I136"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="D2:H3"/>
@@ -13478,6 +13377,11 @@
     <mergeCell ref="D94:H95"/>
     <mergeCell ref="D96:G96"/>
     <mergeCell ref="B99:D99"/>
+    <mergeCell ref="D48:G49"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K47:P49"/>
+    <mergeCell ref="K2:P3"/>
+    <mergeCell ref="K4:Q4"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:I42 K8:K12 K16 K31 K20:K21">
     <cfRule type="containsBlanks" dxfId="43" priority="58">
@@ -13677,8 +13581,8 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="51" operator="between" id="{2A317474-061B-4700-B0F7-5BA1B376710C}">
-            <xm:f>'\Users\DESARROLLO2\Documents\Victor Emanuel\BIOMETRICO\REPORTES\PLANTILLA\[Plantilla de presentación - vertical.xlsx]Horario'!#REF!</xm:f>
-            <xm:f>'\Users\DESARROLLO2\Documents\Victor Emanuel\BIOMETRICO\REPORTES\PLANTILLA\[Plantilla de presentación - vertical.xlsx]Horario'!#REF!</xm:f>
+            <xm:f>'C:\Users\DESARROLLO2\Documents\Victor Emanuel\BIOMETRICO\REPORTES\PLANTILLA\[Plantilla de presentación - vertical.xlsx]Horario'!#REF!</xm:f>
+            <xm:f>'C:\Users\DESARROLLO2\Documents\Victor Emanuel\BIOMETRICO\REPORTES\PLANTILLA\[Plantilla de presentación - vertical.xlsx]Horario'!#REF!</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -13794,7 +13698,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="2.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -13803,15 +13707,15 @@
     <col min="8" max="9" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="25.5" customHeight="1"/>
+    <row r="3" spans="2:11" ht="10.5" customHeight="1"/>
+    <row r="6" spans="2:11" ht="15.75">
       <c r="B6" s="8"/>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
@@ -13822,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -13831,21 +13735,21 @@
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11">
       <c r="B8" s="11"/>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="90"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="90"/>
+      <c r="G8" s="88"/>
       <c r="H8" s="15"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11">
       <c r="B9" s="11"/>
       <c r="C9" s="17">
         <v>0.33333333333333331</v>
@@ -13863,7 +13767,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11">
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -13872,7 +13776,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -13881,7 +13785,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11">
       <c r="B12" s="12"/>
       <c r="C12" s="58" t="s">
         <v>104</v>
@@ -13892,36 +13796,36 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
       <c r="B14" s="8"/>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
-      <c r="J14" s="91" t="s">
+      <c r="J14" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="91"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="90"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="11"/>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="84"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="85"/>
+      <c r="G15" s="92"/>
       <c r="H15" s="15"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="B16" s="11"/>
       <c r="C16" s="17">
         <v>0.29166666666666669</v>
@@ -13939,7 +13843,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="21"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
@@ -13949,7 +13853,7 @@
       <c r="H17" s="25"/>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -13958,7 +13862,7 @@
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -13967,13 +13871,13 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" s="8"/>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
@@ -13981,21 +13885,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" s="11"/>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="88"/>
+      <c r="G21" s="94"/>
       <c r="H21" s="15"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" s="11"/>
       <c r="C22" s="17">
         <v>0.5</v>
@@ -14013,7 +13917,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10">
       <c r="B23" s="21"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -14024,16 +13928,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="J14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
